--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N2">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O2">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P2">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q2">
-        <v>0.7539419775998889</v>
+        <v>0.159656801668</v>
       </c>
       <c r="R2">
-        <v>6.785477798399</v>
+        <v>1.436911215012</v>
       </c>
       <c r="S2">
-        <v>0.006546858830902225</v>
+        <v>0.00285541992864762</v>
       </c>
       <c r="T2">
-        <v>0.006546858830902224</v>
+        <v>0.00285541992864762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H3">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.544755</v>
       </c>
       <c r="O3">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P3">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q3">
-        <v>3.276770266771666</v>
+        <v>0.8828576749766666</v>
       </c>
       <c r="R3">
-        <v>29.490932400945</v>
+        <v>7.945719074789999</v>
       </c>
       <c r="S3">
-        <v>0.02845385055511079</v>
+        <v>0.0157896774390486</v>
       </c>
       <c r="T3">
-        <v>0.02845385055511078</v>
+        <v>0.0157896774390486</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H4">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N4">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O4">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P4">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q4">
-        <v>66.8177581355591</v>
+        <v>18.54656508670467</v>
       </c>
       <c r="R4">
-        <v>601.3598232200319</v>
+        <v>166.919085780342</v>
       </c>
       <c r="S4">
-        <v>0.5802123278815807</v>
+        <v>0.3317004412167872</v>
       </c>
       <c r="T4">
-        <v>0.5802123278815805</v>
+        <v>0.3317004412167872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H5">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N5">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O5">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P5">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q5">
-        <v>7.437427290122888</v>
+        <v>2.752028895073111</v>
       </c>
       <c r="R5">
-        <v>66.93684561110599</v>
+        <v>24.76826005565799</v>
       </c>
       <c r="S5">
-        <v>0.06458293606165882</v>
+        <v>0.04921931335908047</v>
       </c>
       <c r="T5">
-        <v>0.06458293606165881</v>
+        <v>0.04921931335908045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J6">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N6">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O6">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P6">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q6">
-        <v>0.02507652821311112</v>
+        <v>0.019709345708</v>
       </c>
       <c r="R6">
-        <v>0.225688753918</v>
+        <v>0.177384111372</v>
       </c>
       <c r="S6">
-        <v>0.0002177521547520204</v>
+        <v>0.0003524964669670478</v>
       </c>
       <c r="T6">
-        <v>0.0002177521547520203</v>
+        <v>0.0003524964669670478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.544755</v>
       </c>
       <c r="O7">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P7">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q7">
         <v>0.1089871959433334</v>
@@ -883,10 +883,10 @@
         <v>0.9808847634900001</v>
       </c>
       <c r="S7">
-        <v>0.0009463908462668789</v>
+        <v>0.001949207349845038</v>
       </c>
       <c r="T7">
-        <v>0.0009463908462668786</v>
+        <v>0.001949207349845038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J8">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N8">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O8">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P8">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q8">
-        <v>2.222395684024889</v>
+        <v>2.289540183511334</v>
       </c>
       <c r="R8">
-        <v>20.001561156224</v>
+        <v>20.605861651602</v>
       </c>
       <c r="S8">
-        <v>0.01929818373561732</v>
+        <v>0.04094782432778825</v>
       </c>
       <c r="T8">
-        <v>0.01929818373561731</v>
+        <v>0.04094782432778824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J9">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N9">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O9">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P9">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q9">
-        <v>0.2473729554991111</v>
+        <v>0.3397330293775556</v>
       </c>
       <c r="R9">
-        <v>2.226356599492</v>
+        <v>3.057597264398</v>
       </c>
       <c r="S9">
-        <v>0.002148064262705376</v>
+        <v>0.00607603592436822</v>
       </c>
       <c r="T9">
-        <v>0.002148064262705376</v>
+        <v>0.006076035924368218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H10">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N10">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O10">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P10">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q10">
-        <v>0.1341004279314444</v>
+        <v>0.138141398798</v>
       </c>
       <c r="R10">
-        <v>1.206903851383</v>
+        <v>1.243272589182</v>
       </c>
       <c r="S10">
-        <v>0.001164461718427699</v>
+        <v>0.002470622604098724</v>
       </c>
       <c r="T10">
-        <v>0.001164461718427699</v>
+        <v>0.002470622604098724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H11">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.544755</v>
       </c>
       <c r="O11">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P11">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q11">
-        <v>0.5828250821183333</v>
+        <v>0.7638834856183332</v>
       </c>
       <c r="R11">
-        <v>5.245425739064999</v>
+        <v>6.874951370564998</v>
       </c>
       <c r="S11">
-        <v>0.005060964436394166</v>
+        <v>0.01366185533726983</v>
       </c>
       <c r="T11">
-        <v>0.005060964436394165</v>
+        <v>0.01366185533726983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H12">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N12">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O12">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P12">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q12">
-        <v>11.88458823837155</v>
+        <v>16.04722390282633</v>
       </c>
       <c r="R12">
-        <v>106.961294145344</v>
+        <v>144.425015125437</v>
       </c>
       <c r="S12">
-        <v>0.10319987979408</v>
+        <v>0.2870003811480884</v>
       </c>
       <c r="T12">
-        <v>0.10319987979408</v>
+        <v>0.2870003811480884</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H13">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N13">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O13">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P13">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q13">
-        <v>1.322863313022444</v>
+        <v>2.381164580062555</v>
       </c>
       <c r="R13">
-        <v>11.905769817202</v>
+        <v>21.430481220563</v>
       </c>
       <c r="S13">
-        <v>0.01148709001521292</v>
+        <v>0.0425865025746863</v>
       </c>
       <c r="T13">
-        <v>0.01148709001521291</v>
+        <v>0.0425865025746863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H14">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N14">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O14">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P14">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q14">
-        <v>0.1959520333981111</v>
+        <v>0.082069145548</v>
       </c>
       <c r="R14">
-        <v>1.763568300583</v>
+        <v>0.7386223099320001</v>
       </c>
       <c r="S14">
-        <v>0.001701550435445419</v>
+        <v>0.001467785094506315</v>
       </c>
       <c r="T14">
-        <v>0.001701550435445419</v>
+        <v>0.001467785094506315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H15">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.544755</v>
       </c>
       <c r="O15">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P15">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q15">
-        <v>0.8516435161183333</v>
+        <v>0.4538195320766667</v>
       </c>
       <c r="R15">
-        <v>7.664791645065001</v>
+        <v>4.08437578869</v>
       </c>
       <c r="S15">
-        <v>0.007395250616008085</v>
+        <v>0.008116443035079152</v>
       </c>
       <c r="T15">
-        <v>0.007395250616008084</v>
+        <v>0.008116443035079152</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H16">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N16">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O16">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P16">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q16">
-        <v>17.36615809010489</v>
+        <v>9.533579112284668</v>
       </c>
       <c r="R16">
-        <v>156.295422810944</v>
+        <v>85.802212010562</v>
       </c>
       <c r="S16">
-        <v>0.1507991182729763</v>
+        <v>0.1705055563192615</v>
       </c>
       <c r="T16">
-        <v>0.1507991182729763</v>
+        <v>0.1705055563192615</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H17">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N17">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O17">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P17">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q17">
-        <v>1.933012146889111</v>
+        <v>1.414638509493111</v>
       </c>
       <c r="R17">
-        <v>17.397109322002</v>
+        <v>12.731746585438</v>
       </c>
       <c r="S17">
-        <v>0.01678532038286139</v>
+        <v>0.02530043787447741</v>
       </c>
       <c r="T17">
-        <v>0.01678532038286139</v>
+        <v>0.02530043787447741</v>
       </c>
     </row>
   </sheetData>
